--- a/streamlit_app_v.7/data/lookups/Zonas_fora_de_operacao_urbana_att_2.xlsx
+++ b/streamlit_app_v.7/data/lookups/Zonas_fora_de_operacao_urbana_att_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\GitHub\PROJETO_NORTIS\streamlit_app\data\lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780A7F92-812F-4163-AB58-513193EF8BFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CBED3D-AE14-412A-8B6F-1AAFFA0D17A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28695" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="77">
   <si>
     <t>Tipo de Zona</t>
   </si>
@@ -211,15 +211,6 @@
     <t>ZM FARIA LIMA</t>
   </si>
   <si>
-    <t>T2a</t>
-  </si>
-  <si>
-    <t>T2b</t>
-  </si>
-  <si>
-    <t>T2c</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
@@ -229,10 +220,37 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>Q8a</t>
-  </si>
-  <si>
-    <t>Q8b</t>
+    <t>Agua Branca</t>
+  </si>
+  <si>
+    <t>Agua Espraiada</t>
+  </si>
+  <si>
+    <t>ZEIS-5 AGUA ESPRAIADA</t>
+  </si>
+  <si>
+    <t>Faria Lima</t>
+  </si>
+  <si>
+    <t>PIU Setor Central</t>
+  </si>
+  <si>
+    <t>Q8B</t>
+  </si>
+  <si>
+    <t>Q8A</t>
+  </si>
+  <si>
+    <t>T2C</t>
+  </si>
+  <si>
+    <t>T2B</t>
+  </si>
+  <si>
+    <t>T2A</t>
+  </si>
+  <si>
+    <t>Arco Tietê</t>
   </si>
 </sst>
 </file>
@@ -595,10 +613,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G73"/>
+  <dimension ref="A1:G74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -908,7 +926,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -928,7 +946,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -940,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -948,7 +966,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -960,15 +978,18 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -980,15 +1001,18 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1000,15 +1024,18 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>57</v>
+        <v>14</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1020,15 +1047,18 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>18</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1040,15 +1070,18 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1060,15 +1093,18 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1080,15 +1116,18 @@
         <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1100,15 +1139,18 @@
         <v>0</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1120,15 +1162,18 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1140,15 +1185,18 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1171,7 +1219,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1194,7 +1242,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1217,7 +1265,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1240,7 +1288,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1263,7 +1311,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1286,7 +1334,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1309,7 +1357,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1332,7 +1380,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1355,7 +1403,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1378,7 +1426,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1401,7 +1449,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1424,7 +1472,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1447,7 +1495,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1470,7 +1518,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1493,7 +1541,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1516,7 +1564,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1539,7 +1587,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1562,7 +1610,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1585,7 +1633,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1608,7 +1656,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1631,7 +1679,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1654,7 +1702,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1677,7 +1725,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1700,7 +1748,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1723,7 +1771,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1746,7 +1794,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1769,7 +1817,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -1792,416 +1840,382 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>21</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B56" t="s">
+        <v>76</v>
       </c>
       <c r="C56">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>43</v>
-      </c>
-      <c r="B57">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="B57" t="s">
+        <v>70</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F57">
-        <v>0</v>
-      </c>
-      <c r="G57">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>12</v>
-      </c>
-      <c r="B58">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="B58" t="s">
+        <v>70</v>
       </c>
       <c r="C58">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E58" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F58">
-        <v>0</v>
-      </c>
-      <c r="G58">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>44</v>
-      </c>
-      <c r="B59">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="B59" t="s">
+        <v>70</v>
       </c>
       <c r="C59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D59">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F59">
-        <v>0</v>
-      </c>
-      <c r="G59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60">
-        <v>0</v>
+        <v>63</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
       </c>
       <c r="C60">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D60">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="E60" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F60">
-        <v>0</v>
-      </c>
-      <c r="G60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>46</v>
-      </c>
-      <c r="B61">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="B61" t="s">
+        <v>70</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F61">
-        <v>0</v>
-      </c>
-      <c r="G61">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>47</v>
-      </c>
-      <c r="B62">
-        <v>0</v>
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>70</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E62" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="B63" t="s">
+        <v>70</v>
       </c>
       <c r="C63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="E63" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F63">
-        <v>0</v>
-      </c>
-      <c r="G63">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>25</v>
-      </c>
-      <c r="B64">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="B64" t="s">
+        <v>70</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F64">
-        <v>0</v>
-      </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>49</v>
-      </c>
-      <c r="B65">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E65" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>69</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66">
         <v>63</v>
       </c>
-      <c r="B66">
-        <v>0</v>
-      </c>
-      <c r="C66">
-        <v>0</v>
-      </c>
-      <c r="D66">
-        <v>0</v>
-      </c>
       <c r="E66" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F66">
-        <v>0</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>64</v>
-      </c>
-      <c r="B67">
-        <v>0</v>
+        <v>55</v>
+      </c>
+      <c r="B67" t="s">
+        <v>67</v>
       </c>
       <c r="C67">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E67" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F67">
-        <v>0</v>
-      </c>
-      <c r="G67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>65</v>
-      </c>
-      <c r="B68">
-        <v>0</v>
+        <v>58</v>
+      </c>
+      <c r="B68" t="s">
+        <v>67</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E68" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>66</v>
-      </c>
-      <c r="B69">
-        <v>0</v>
+        <v>57</v>
+      </c>
+      <c r="B69" t="s">
+        <v>67</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E69" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F69">
-        <v>0</v>
-      </c>
-      <c r="G69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
+        <v>56</v>
+      </c>
+      <c r="B70" t="s">
         <v>67</v>
       </c>
-      <c r="B70">
-        <v>0</v>
-      </c>
       <c r="C70">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E70" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
-      <c r="B71">
-        <v>0</v>
+      <c r="B71" t="s">
+        <v>67</v>
       </c>
       <c r="C71">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F71">
-        <v>0</v>
-      </c>
-      <c r="G71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>69</v>
-      </c>
-      <c r="B72">
-        <v>0</v>
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>66</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D72">
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>70</v>
-      </c>
-      <c r="B73">
-        <v>0</v>
+        <v>52</v>
+      </c>
+      <c r="B73" t="s">
+        <v>66</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F73">
-        <v>0</v>
-      </c>
-      <c r="G73">
-        <v>0</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74">
+        <v>2.5</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>11</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/streamlit_app_v.7/data/lookups/Zonas_fora_de_operacao_urbana_att_2.xlsx
+++ b/streamlit_app_v.7/data/lookups/Zonas_fora_de_operacao_urbana_att_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\GitHub\PROJETO_NORTIS\streamlit_app\data\lookups\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\GitHub\NORTIS-OFICIAL\streamlit_app_v.7\data\lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9CBED3D-AE14-412A-8B6F-1AAFFA0D17A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEDE1D5-BA20-41A9-9793-62D0FF870F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
   <si>
     <t>Tipo de Zona</t>
   </si>
@@ -235,22 +235,19 @@
     <t>PIU Setor Central</t>
   </si>
   <si>
-    <t>Q8B</t>
-  </si>
-  <si>
-    <t>Q8A</t>
-  </si>
-  <si>
-    <t>T2C</t>
-  </si>
-  <si>
-    <t>T2B</t>
-  </si>
-  <si>
-    <t>T2A</t>
-  </si>
-  <si>
     <t>Arco Tietê</t>
+  </si>
+  <si>
+    <t>T2a</t>
+  </si>
+  <si>
+    <t>T2b</t>
+  </si>
+  <si>
+    <t>T2c</t>
+  </si>
+  <si>
+    <t>Q8a</t>
   </si>
 </sst>
 </file>
@@ -615,8 +612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="M58" sqref="M58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1843,7 +1840,7 @@
         <v>61</v>
       </c>
       <c r="B56" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C56">
         <v>6</v>
@@ -1860,7 +1857,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
         <v>70</v>
@@ -1880,7 +1877,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
         <v>70</v>
@@ -1900,7 +1897,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
         <v>70</v>
@@ -1980,7 +1977,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B63" t="s">
         <v>70</v>
@@ -2000,7 +1997,7 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B64" t="s">
         <v>70</v>

--- a/streamlit_app_v.7/data/lookups/Zonas_fora_de_operacao_urbana_att_2.xlsx
+++ b/streamlit_app_v.7/data/lookups/Zonas_fora_de_operacao_urbana_att_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Documentos\GitHub\NORTIS-OFICIAL\streamlit_app_v.7\data\lookups\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEDE1D5-BA20-41A9-9793-62D0FF870F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BC7DD6F-C209-4242-A557-E33E7A7395ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="44580" yWindow="0" windowWidth="13125" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="76">
   <si>
     <t>Tipo de Zona</t>
   </si>
@@ -610,10 +610,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G74"/>
+  <dimension ref="A1:G73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="M58" sqref="M58"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1078,7 +1078,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1124,7 +1124,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1193,7 +1193,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1216,7 +1216,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1239,7 +1239,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1262,7 +1262,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1285,7 +1285,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1308,7 +1308,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1331,7 +1331,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1354,7 +1354,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1377,7 +1377,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1400,7 +1400,7 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1446,7 +1446,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1469,7 +1469,7 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1561,7 +1561,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1584,7 +1584,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1607,7 +1607,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1630,7 +1630,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>43</v>
+        <v>12</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -1653,7 +1653,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -1676,7 +1676,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1699,7 +1699,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -1722,7 +1722,7 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1745,7 +1745,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1768,7 +1768,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -1814,36 +1814,33 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>49</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
+        <v>61</v>
+      </c>
+      <c r="B55" t="s">
+        <v>71</v>
       </c>
       <c r="C55">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="F55">
-        <v>0</v>
-      </c>
-      <c r="G55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C56">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D56">
         <v>63</v>
@@ -1857,7 +1854,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
         <v>70</v>
@@ -1877,7 +1874,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B58" t="s">
         <v>70</v>
@@ -1897,19 +1894,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B59" t="s">
         <v>70</v>
       </c>
       <c r="C59">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="E59" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -1917,16 +1914,16 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B60" t="s">
         <v>70</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D60">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
         <v>16</v>
@@ -1937,13 +1934,13 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B61" t="s">
         <v>70</v>
       </c>
       <c r="C61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61">
         <v>28</v>
@@ -1957,7 +1954,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="B62" t="s">
         <v>70</v>
@@ -1986,7 +1983,7 @@
         <v>3</v>
       </c>
       <c r="D63">
-        <v>28</v>
+        <v>63</v>
       </c>
       <c r="E63" t="s">
         <v>16</v>
@@ -1997,19 +1994,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2017,13 +2014,13 @@
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B65" t="s">
         <v>69</v>
       </c>
       <c r="C65">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65">
         <v>63</v>
@@ -2037,19 +2034,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C66">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D66">
         <v>63</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2057,7 +2054,7 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -2069,7 +2066,7 @@
         <v>63</v>
       </c>
       <c r="E67" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2077,7 +2074,7 @@
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68" t="s">
         <v>67</v>
@@ -2097,7 +2094,7 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B69" t="s">
         <v>67</v>
@@ -2109,7 +2106,7 @@
         <v>63</v>
       </c>
       <c r="E69" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -2117,16 +2114,16 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B70" t="s">
         <v>67</v>
       </c>
       <c r="C70">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D70">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="E70" t="s">
         <v>11</v>
@@ -2137,19 +2134,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>68</v>
+        <v>51</v>
       </c>
       <c r="B71" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C71">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="D71">
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -2157,7 +2154,7 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B72" t="s">
         <v>66</v>
@@ -2169,7 +2166,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F72">
         <v>1</v>
@@ -2177,13 +2174,13 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B73" t="s">
         <v>66</v>
       </c>
       <c r="C73">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="D73">
         <v>0</v>
@@ -2192,26 +2189,6 @@
         <v>11</v>
       </c>
       <c r="F73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>53</v>
-      </c>
-      <c r="B74" t="s">
-        <v>66</v>
-      </c>
-      <c r="C74">
-        <v>2.5</v>
-      </c>
-      <c r="D74">
-        <v>0</v>
-      </c>
-      <c r="E74" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74">
         <v>1</v>
       </c>
     </row>
